--- a/data/HSE资源费用月表_2025年4月.xlsx
+++ b/data/HSE资源费用月表_2025年4月.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_Work_Station\Work_Platform\A_Plan\Agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{401A0555-6A6F-4669-8FDC-266DEC61D160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E2C55D-A5DB-4DE6-8968-F7602CFBDA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{270982BE-1760-419C-BDF1-0BB9989C95FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6095193E-ACC2-493E-98FE-592CB506F6C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="费用统计" sheetId="1" r:id="rId1"/>
+    <sheet name="费用统计" sheetId="4" r:id="rId1"/>
+    <sheet name="集群统计" sheetId="3" r:id="rId2"/>
+    <sheet name="slot使用情况统计" sheetId="2" r:id="rId3"/>
+    <sheet name="mem使用情况统计" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>HSE团队名称</t>
   </si>
@@ -94,6 +97,9 @@
   </si>
   <si>
     <t>Platform</t>
+  </si>
+  <si>
+    <t>Impl-FE</t>
   </si>
   <si>
     <t>SIPI</t>
@@ -111,6 +117,87 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSE集群名称</t>
+  </si>
+  <si>
+    <t>总节点数（台）</t>
+  </si>
+  <si>
+    <t>hse_front_end_hosts</t>
+  </si>
+  <si>
+    <t>middle_end_hosts</t>
+  </si>
+  <si>
+    <t>back_end_hosts</t>
+  </si>
+  <si>
+    <t>middle_end_8_hosts</t>
+  </si>
+  <si>
+    <t>pdfct_hosts</t>
+  </si>
+  <si>
+    <t>pdpv_hosts</t>
+  </si>
+  <si>
+    <t>pdpwr_hosts</t>
+  </si>
+  <si>
+    <t>pdxlarge_hosts</t>
+  </si>
+  <si>
+    <t>slot利用率Week1</t>
+  </si>
+  <si>
+    <t>slot利用率Week2</t>
+  </si>
+  <si>
+    <t>slot利用率Week3</t>
+  </si>
+  <si>
+    <t>slot利用率Week4</t>
+  </si>
+  <si>
+    <t>slot申请占比Week1</t>
+  </si>
+  <si>
+    <t>slot申请占比Week2</t>
+  </si>
+  <si>
+    <t>slot申请占比Week3</t>
+  </si>
+  <si>
+    <t>slot申请占比Week4</t>
+  </si>
+  <si>
+    <t>mem利用率Week1</t>
+  </si>
+  <si>
+    <t>mem利用率Week2</t>
+  </si>
+  <si>
+    <t>mem利用率Week3</t>
+  </si>
+  <si>
+    <t>mem利用率Week4</t>
+  </si>
+  <si>
+    <t>mem申请占比Week1</t>
+  </si>
+  <si>
+    <t>mem申请占比Week2</t>
+  </si>
+  <si>
+    <t>mem申请占比Week3</t>
+  </si>
+  <si>
+    <t>mem申请占比Week4</t>
+  </si>
+  <si>
+    <t>dfx</t>
   </si>
 </sst>
 </file>
@@ -473,7 +560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF722D9C-D9AF-4075-B68C-D8DD747AF7F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0706C0F-EFE2-4621-B59B-EBBEFE7C1A7A}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -788,7 +875,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>8.1633999999999993</v>
@@ -797,7 +884,7 @@
         <v>2.3773362491999146</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>10.540736249199915</v>
@@ -805,7 +892,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0.99960000000000004</v>
@@ -822,7 +909,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0.66639999999999999</v>
@@ -839,7 +926,7 @@
     </row>
     <row r="22" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>28.838459999999998</v>
@@ -859,4 +946,669 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15731D4D-3D27-4074-941B-3DD220AD66A2}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A4556B-B3A2-426D-9044-63BC61847122}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.8299858156028368</v>
+      </c>
+      <c r="C2">
+        <v>0.86808510638297887</v>
+      </c>
+      <c r="D2">
+        <v>0.83802127659574466</v>
+      </c>
+      <c r="E2">
+        <v>0.86808510638297887</v>
+      </c>
+      <c r="F2">
+        <v>0.64815666084398271</v>
+      </c>
+      <c r="G2">
+        <v>0.68526438569206838</v>
+      </c>
+      <c r="H2">
+        <v>0.69396594152967817</v>
+      </c>
+      <c r="I2">
+        <v>0.64815666084398271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.48642857142857149</v>
+      </c>
+      <c r="D3">
+        <v>0.45171428571428568</v>
+      </c>
+      <c r="E3">
+        <v>0.48642857142857149</v>
+      </c>
+      <c r="F3">
+        <v>1.3790567251999633E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.4020217729393468E-2</v>
+      </c>
+      <c r="H3">
+        <v>3.4452209863175508E-2</v>
+      </c>
+      <c r="I3">
+        <v>3.2177990254665806E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.36492134831460671</v>
+      </c>
+      <c r="C4">
+        <v>0.64950561797752815</v>
+      </c>
+      <c r="D4">
+        <v>0.60466666666666669</v>
+      </c>
+      <c r="E4">
+        <v>0.64950561797752815</v>
+      </c>
+      <c r="F4">
+        <v>2.0456008090466122E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.1627138413685847E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.1073924598877842E-2</v>
+      </c>
+      <c r="I4">
+        <v>2.0456008090466122E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.46987500000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.62350000000000005</v>
+      </c>
+      <c r="E5">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="F5">
+        <v>1.8387423002666176E-2</v>
+      </c>
+      <c r="G5">
+        <v>4.8600311041990668E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.4765232798503791E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.5968557506665439E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.43941134751773048</v>
+      </c>
+      <c r="C6">
+        <v>0.37558156028368794</v>
+      </c>
+      <c r="D6">
+        <v>0.43559574468085105</v>
+      </c>
+      <c r="E6">
+        <v>0.37558156028368794</v>
+      </c>
+      <c r="F6">
+        <v>2.592626643375931E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.7410575427682736E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.7758637661187125E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.592626643375931E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>5.6658536585365855E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.66201754385964906</v>
+      </c>
+      <c r="E7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F7">
+        <v>7.5388434310931325E-3</v>
+      </c>
+      <c r="G7">
+        <v>3.1104199066874028E-3</v>
+      </c>
+      <c r="H7">
+        <v>5.6107884634314402E-3</v>
+      </c>
+      <c r="I7">
+        <v>2.9419876804265884E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.16824999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.16625000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.16375000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.16625000000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.8387423002666176E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.9440124416796267E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.9686977064671721E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.8387423002666176E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.14450980392156862</v>
+      </c>
+      <c r="C9">
+        <v>0.40303921568627454</v>
+      </c>
+      <c r="D9">
+        <v>0.53294117647058825</v>
+      </c>
+      <c r="E9">
+        <v>0.40303921568627454</v>
+      </c>
+      <c r="F9">
+        <v>1.1721982164199687E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.2393079315707621E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.2550447878728221E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.1721982164199687E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.1492</v>
+      </c>
+      <c r="C10">
+        <v>0.30930000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.1817</v>
+      </c>
+      <c r="E10">
+        <v>0.30930000000000002</v>
+      </c>
+      <c r="F10">
+        <v>2.2984278753332719E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.4300155520995334E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.4608721330839651E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.2984278753332719E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.18924460431654677</v>
+      </c>
+      <c r="C11">
+        <v>0.2331007194244604</v>
+      </c>
+      <c r="D11">
+        <v>0.22129496402877699</v>
+      </c>
+      <c r="E11">
+        <v>0.2331007194244604</v>
+      </c>
+      <c r="F11">
+        <v>2.5558517973705987E-2</v>
+      </c>
+      <c r="G11">
+        <v>2.7021772939346812E-2</v>
+      </c>
+      <c r="H11">
+        <v>2.7364898119893691E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.5558517973705987E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.24600000000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.38</v>
+      </c>
+      <c r="D12">
+        <v>0.44800000000000006</v>
+      </c>
+      <c r="E12">
+        <v>0.38</v>
+      </c>
+      <c r="F12">
+        <v>4.5968557506665441E-3</v>
+      </c>
+      <c r="G12">
+        <v>4.8600311041990668E-3</v>
+      </c>
+      <c r="H12">
+        <v>4.9217442661679302E-3</v>
+      </c>
+      <c r="I12">
+        <v>4.5968557506665441E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C13">
+        <v>4.1000000000000009E-2</v>
+      </c>
+      <c r="D13">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E13">
+        <v>4.1000000000000009E-2</v>
+      </c>
+      <c r="F13">
+        <v>4.5968557506665441E-3</v>
+      </c>
+      <c r="G13">
+        <v>4.8600311041990668E-3</v>
+      </c>
+      <c r="H13">
+        <v>4.9217442661679302E-3</v>
+      </c>
+      <c r="I13">
+        <v>4.5968557506665441E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B80C9D-A592-45B2-BA29-DE480910B363}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.23625000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.26124999999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.23625000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="G2">
+        <v>0.28520499108734404</v>
+      </c>
+      <c r="H2">
+        <v>0.28520499108734404</v>
+      </c>
+      <c r="I2">
+        <v>0.35555555555555557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.11200000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.11200000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G3">
+        <v>0.71301247771836007</v>
+      </c>
+      <c r="H3">
+        <v>0.71301247771836007</v>
+      </c>
+      <c r="I3">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="H4">
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2.3000000000000003E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F5">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G5">
+        <v>5.3475935828877004E-2</v>
+      </c>
+      <c r="H5">
+        <v>5.3475935828877004E-2</v>
+      </c>
+      <c r="I5">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.03</v>
+      </c>
+      <c r="C6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.02</v>
+      </c>
+      <c r="E6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F6">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="G6">
+        <v>7.130124777183601E-2</v>
+      </c>
+      <c r="H6">
+        <v>7.130124777183601E-2</v>
+      </c>
+      <c r="I6">
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>